--- a/doc/目標管理スケジュール_製造・テスト.xlsx
+++ b/doc/目標管理スケジュール_製造・テスト.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -376,6 +376,13 @@
     <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -762,6 +769,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,24 +799,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -858,6 +865,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -866,27 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1343,6 +1350,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="3057525"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="3295650"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1674,10 +1789,10 @@
   <dimension ref="A1:CL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -1701,30 +1816,30 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="43" t="s">
         <v>1</v>
       </c>
@@ -1749,28 +1864,28 @@
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="62"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="59"/>
       <c r="AD2" s="43" t="s">
         <v>2</v>
       </c>
@@ -2674,40 +2789,40 @@
       </c>
     </row>
     <row r="7" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="22" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="56">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="53">
         <v>44418</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53">
         <v>44418</v>
       </c>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -2774,38 +2889,38 @@
       <c r="CJ7" s="12"/>
     </row>
     <row r="8" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="21">
         <v>44420</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="25">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="21">
         <v>44420</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -2872,38 +2987,38 @@
       <c r="CJ8" s="12"/>
     </row>
     <row r="9" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="21">
         <v>44420</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="25">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="21">
         <v>44420</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -2970,38 +3085,38 @@
       <c r="CJ9" s="12"/>
     </row>
     <row r="10" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="21">
         <v>44421</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="25">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="21">
         <v>44421</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3068,38 +3183,38 @@
       <c r="CJ10" s="12"/>
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="21">
         <v>44421</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="25">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="21">
         <v>44421</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3166,38 +3281,38 @@
       <c r="CJ11" s="12"/>
     </row>
     <row r="12" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="21">
         <v>44422</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="25">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="21">
         <v>44445</v>
       </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28" t="s">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -3264,38 +3379,38 @@
       <c r="CJ12" s="12"/>
     </row>
     <row r="13" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="21">
         <v>44422</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21">
         <v>44424</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -3362,38 +3477,38 @@
       <c r="CJ13" s="12"/>
     </row>
     <row r="14" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25">
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="21">
         <v>44425</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="25">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21">
         <v>44426</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3460,38 +3575,38 @@
       <c r="CJ14" s="12"/>
     </row>
     <row r="15" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25">
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="21">
         <v>44427</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="25">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="21">
         <v>44431</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28" t="s">
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -3558,38 +3673,38 @@
       <c r="CJ15" s="12"/>
     </row>
     <row r="16" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="21">
         <v>44432</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="25">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="21">
         <v>44440</v>
       </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -3656,38 +3771,38 @@
       <c r="CJ16" s="12"/>
     </row>
     <row r="17" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="21">
         <v>44441</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="25">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="21">
         <v>44445</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28" t="s">
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -3754,8 +3869,8 @@
       <c r="CJ17" s="12"/>
     </row>
     <row r="18" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="31" t="s">
         <v>35</v>
       </c>
@@ -3763,31 +3878,31 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25">
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="21">
         <v>44446</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="25">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="21">
         <v>44450</v>
       </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28" t="s">
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -3854,38 +3969,38 @@
       <c r="CJ18" s="12"/>
     </row>
     <row r="19" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25">
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="21">
         <v>44446</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="25">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="21">
         <v>44446</v>
       </c>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -3952,38 +4067,38 @@
       <c r="CJ19" s="12"/>
     </row>
     <row r="20" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="34"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="21">
         <v>44447</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="25">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="21">
         <v>44447</v>
       </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -4050,38 +4165,38 @@
       <c r="CJ20" s="12"/>
     </row>
     <row r="21" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="34"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="21">
         <v>44448</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="25">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="21">
         <v>44448</v>
       </c>
-      <c r="T21" s="26"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="28" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4148,38 +4263,38 @@
       <c r="CJ21" s="12"/>
     </row>
     <row r="22" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="34"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="21">
         <v>44449</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="25">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="21">
         <v>44449</v>
       </c>
-      <c r="T22" s="26"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="26"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -4246,38 +4361,38 @@
       <c r="CJ22" s="12"/>
     </row>
     <row r="23" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="21">
         <v>44450</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="25">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="21">
         <v>44450</v>
       </c>
-      <c r="T23" s="26"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28" t="s">
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -4344,38 +4459,38 @@
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25">
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="21">
         <v>44451</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="25">
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="21">
         <v>44458</v>
       </c>
-      <c r="T24" s="26"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -4442,38 +4557,38 @@
       <c r="CJ24" s="12"/>
     </row>
     <row r="25" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="21">
         <v>44451</v>
       </c>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="25">
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="21">
         <v>44451</v>
       </c>
-      <c r="T25" s="26"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="30"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -4540,38 +4655,38 @@
       <c r="CJ25" s="12"/>
     </row>
     <row r="26" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25">
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="21">
         <v>44452</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="25">
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="21">
         <v>44452</v>
       </c>
-      <c r="T26" s="26"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="29"/>
-      <c r="X26" s="30"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -4638,38 +4753,38 @@
       <c r="CJ26" s="12"/>
     </row>
     <row r="27" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25">
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="21">
         <v>44453</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="25">
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="21">
         <v>44454</v>
       </c>
-      <c r="T27" s="26"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28" t="s">
+      <c r="T27" s="22"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4736,38 +4851,38 @@
       <c r="CJ27" s="12"/>
     </row>
     <row r="28" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="34"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="21">
         <v>44455</v>
       </c>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="25">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="21">
         <v>44456</v>
       </c>
-      <c r="T28" s="26"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28" t="s">
+      <c r="T28" s="22"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4834,38 +4949,38 @@
       <c r="CJ28" s="12"/>
     </row>
     <row r="29" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="21">
         <v>44457</v>
       </c>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="25">
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="21">
         <v>44458</v>
       </c>
-      <c r="T29" s="26"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="28" t="s">
+      <c r="T29" s="22"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -4932,32 +5047,32 @@
       <c r="CJ29" s="12"/>
     </row>
     <row r="30" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
@@ -5024,32 +5139,32 @@
       <c r="CJ30" s="12"/>
     </row>
     <row r="31" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28" t="s">
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="29"/>
-      <c r="X31" s="30"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="26"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
@@ -5116,32 +5231,32 @@
       <c r="CJ31" s="12"/>
     </row>
     <row r="32" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28" t="s">
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="29"/>
-      <c r="X32" s="30"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="26"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -5208,32 +5323,32 @@
       <c r="CJ32" s="12"/>
     </row>
     <row r="33" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="28" t="s">
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="30"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="26"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -5300,32 +5415,32 @@
       <c r="CJ33" s="12"/>
     </row>
     <row r="34" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="28" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="30"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="26"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
@@ -5392,32 +5507,32 @@
       <c r="CJ34" s="12"/>
     </row>
     <row r="35" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="28" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="30"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="26"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -5484,8 +5599,8 @@
       <c r="CJ35" s="12"/>
     </row>
     <row r="36" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="64"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
@@ -5499,15 +5614,15 @@
       <c r="M36" s="63"/>
       <c r="N36" s="63"/>
       <c r="O36" s="63"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -5582,10 +5697,6 @@
     <row r="43" spans="1:88" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="H36:O36"/>
@@ -5597,14 +5708,6 @@
     <mergeCell ref="H35:O35"/>
     <mergeCell ref="P35:R35"/>
     <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="V20:X20"/>
@@ -5619,6 +5722,16 @@
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="S30:U30"/>
     <mergeCell ref="V30:X30"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="V7:X7"/>
@@ -5667,16 +5780,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="C7:G17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AD2:AG2"/>
@@ -5691,11 +5794,16 @@
     <mergeCell ref="S5:U6"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="H15:O15"/>
     <mergeCell ref="P15:R15"/>
@@ -5708,9 +5816,6 @@
     <mergeCell ref="H17:O17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:U17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
     <mergeCell ref="H34:O34"/>
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="S24:U24"/>
@@ -5720,9 +5825,21 @@
     <mergeCell ref="P23:R23"/>
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="V22:X22"/>
     <mergeCell ref="A28:B28"/>
@@ -5747,8 +5864,6 @@
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Z5:CJ6">

--- a/doc/目標管理スケジュール_製造・テスト.xlsx
+++ b/doc/目標管理スケジュール_製造・テスト.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -769,6 +769,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,17 +793,14 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -799,6 +811,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -807,105 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1412,10 +1412,10 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1425,7 +1425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8324850" y="3295650"/>
-          <a:ext cx="219075" cy="133350"/>
+          <a:ext cx="714375" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1716,7 +1716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1789,10 +1789,10 @@
   <dimension ref="A1:CL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14:X14"/>
+      <selection pane="bottomRight" activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -1807,100 +1807,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="54" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="43" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="40">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="51">
         <v>44418</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="43" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="40">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="51">
         <v>44469</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1">
       <c r="A3" s="3"/>
@@ -1925,38 +1925,38 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="46" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="48" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="4">
         <f>AH1</f>
         <v>44418</v>
@@ -2217,38 +2217,38 @@
       <c r="CL4" s="7"/>
     </row>
     <row r="5" spans="1:90" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46" t="s">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="8">
         <f>AH1</f>
         <v>44418</v>
@@ -2507,30 +2507,30 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="15" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="10" t="str">
         <f>TEXT(Y5,"aaa")</f>
         <v>火</v>
@@ -2789,40 +2789,40 @@
       </c>
     </row>
     <row r="7" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="60" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="53">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35">
         <v>44418</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35">
         <v>44418</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="24" t="s">
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -2889,38 +2889,38 @@
       <c r="CJ7" s="12"/>
     </row>
     <row r="8" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="28" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="21">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="26">
         <v>44420</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="21">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="26">
         <v>44420</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24" t="s">
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -2987,38 +2987,38 @@
       <c r="CJ8" s="12"/>
     </row>
     <row r="9" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="28" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="21">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="26">
         <v>44420</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="21">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="26">
         <v>44420</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -3085,38 +3085,38 @@
       <c r="CJ9" s="12"/>
     </row>
     <row r="10" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="28" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="21">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="26">
         <v>44421</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="21">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="26">
         <v>44421</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24" t="s">
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3183,38 +3183,38 @@
       <c r="CJ10" s="12"/>
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="28" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="21">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="26">
         <v>44421</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="21">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="26">
         <v>44421</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24" t="s">
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3281,38 +3281,36 @@
       <c r="CJ11" s="12"/>
     </row>
     <row r="12" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="28" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="21">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="26">
         <v>44422</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="21">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="26">
         <v>44445</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -3379,38 +3377,38 @@
       <c r="CJ12" s="12"/>
     </row>
     <row r="13" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="28" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="21">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="26">
         <v>44422</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="21">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="26">
         <v>44424</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24" t="s">
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -3477,38 +3475,38 @@
       <c r="CJ13" s="12"/>
     </row>
     <row r="14" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="28" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="21">
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="26">
         <v>44425</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="21">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="26">
         <v>44426</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24" t="s">
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3575,38 +3573,38 @@
       <c r="CJ14" s="12"/>
     </row>
     <row r="15" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="21">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="26">
         <v>44427</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="21">
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="26">
         <v>44431</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24" t="s">
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -3673,38 +3671,38 @@
       <c r="CJ15" s="12"/>
     </row>
     <row r="16" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="21">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="26">
         <v>44432</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="21">
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="26">
         <v>44440</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24" t="s">
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -3771,38 +3769,38 @@
       <c r="CJ16" s="12"/>
     </row>
     <row r="17" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="28" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="21">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="26">
         <v>44441</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="21">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="26">
         <v>44445</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24" t="s">
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -3869,40 +3867,38 @@
       <c r="CJ17" s="12"/>
     </row>
     <row r="18" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="21">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="26">
         <v>44446</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="21">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="26">
         <v>44450</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -3969,38 +3965,38 @@
       <c r="CJ18" s="12"/>
     </row>
     <row r="19" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="21">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="26">
         <v>44446</v>
       </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="21">
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="26">
         <v>44446</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24" t="s">
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -4067,38 +4063,38 @@
       <c r="CJ19" s="12"/>
     </row>
     <row r="20" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="21">
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="26">
         <v>44447</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="21">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="26">
         <v>44447</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24" t="s">
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -4165,38 +4161,38 @@
       <c r="CJ20" s="12"/>
     </row>
     <row r="21" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="21">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="26">
         <v>44448</v>
       </c>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="21">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="26">
         <v>44448</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24" t="s">
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="26"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4263,38 +4259,38 @@
       <c r="CJ21" s="12"/>
     </row>
     <row r="22" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="28" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="21">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="26">
         <v>44449</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="21">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="26">
         <v>44449</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24" t="s">
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -4361,38 +4357,38 @@
       <c r="CJ22" s="12"/>
     </row>
     <row r="23" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="28" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="21">
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="26">
         <v>44450</v>
       </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="21">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="26">
         <v>44450</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24" t="s">
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -4459,38 +4455,36 @@
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="28" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="21">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="26">
         <v>44451</v>
       </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="21">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="26">
         <v>44458</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -4557,38 +4551,38 @@
       <c r="CJ24" s="12"/>
     </row>
     <row r="25" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="28" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="21">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="26">
         <v>44451</v>
       </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="21">
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="26">
         <v>44451</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="24" t="s">
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="25"/>
-      <c r="X25" s="26"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -4655,38 +4649,38 @@
       <c r="CJ25" s="12"/>
     </row>
     <row r="26" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="28" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="21">
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="26">
         <v>44452</v>
       </c>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="21">
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="26">
         <v>44452</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24" t="s">
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -4753,38 +4747,38 @@
       <c r="CJ26" s="12"/>
     </row>
     <row r="27" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="28" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="21">
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="26">
         <v>44453</v>
       </c>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="21">
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="26">
         <v>44454</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24" t="s">
+      <c r="T27" s="27"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="23"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4851,38 +4845,38 @@
       <c r="CJ27" s="12"/>
     </row>
     <row r="28" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="28" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="21">
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="26">
         <v>44455</v>
       </c>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="21">
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="26">
         <v>44456</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24" t="s">
+      <c r="T28" s="27"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4949,38 +4943,38 @@
       <c r="CJ28" s="12"/>
     </row>
     <row r="29" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="28" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="21">
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="26">
         <v>44457</v>
       </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="21">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="26">
         <v>44458</v>
       </c>
-      <c r="T29" s="22"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="24" t="s">
+      <c r="T29" s="27"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="26"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="23"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -5047,32 +5041,32 @@
       <c r="CJ29" s="12"/>
     </row>
     <row r="30" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="24" t="s">
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="25"/>
-      <c r="X30" s="26"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="23"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
@@ -5139,32 +5133,32 @@
       <c r="CJ30" s="12"/>
     </row>
     <row r="31" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="24" t="s">
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="25"/>
-      <c r="X31" s="26"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
@@ -5231,32 +5225,32 @@
       <c r="CJ31" s="12"/>
     </row>
     <row r="32" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24" t="s">
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="25"/>
-      <c r="X32" s="26"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -5323,32 +5317,32 @@
       <c r="CJ32" s="12"/>
     </row>
     <row r="33" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="24" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="25"/>
-      <c r="X33" s="26"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -5415,32 +5409,32 @@
       <c r="CJ33" s="12"/>
     </row>
     <row r="34" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="24" t="s">
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="25"/>
-      <c r="X34" s="26"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
@@ -5507,32 +5501,32 @@
       <c r="CJ34" s="12"/>
     </row>
     <row r="35" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="24" t="s">
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="25"/>
-      <c r="X35" s="26"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -5599,30 +5593,30 @@
       <c r="CJ35" s="12"/>
     </row>
     <row r="36" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -5697,17 +5691,138 @@
     <row r="43" spans="1:88" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:X6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="C7:G17"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="S18:U18"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="V20:X20"/>
@@ -5732,138 +5847,17 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="P22:R22"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="C7:G17"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:X6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Z5:CJ6">

--- a/doc/目標管理スケジュール_製造・テスト.xlsx
+++ b/doc/目標管理スケジュール_製造・テスト.xlsx
@@ -769,6 +769,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,18 +790,114 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,111 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1412,8 +1412,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -1425,7 +1425,115 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8324850" y="3295650"/>
-          <a:ext cx="714375" cy="152400"/>
+          <a:ext cx="1247775" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="3286125"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="3524250"/>
+          <a:ext cx="952500" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1716,7 +1824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1789,10 +1897,10 @@
   <dimension ref="A1:CL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL19" sqref="AL19"/>
+      <selection pane="bottomRight" activeCell="AW16" sqref="AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -1807,100 +1915,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="54" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="51">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="40">
         <v>44418</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="42"/>
     </row>
     <row r="2" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="54" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="51">
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="40">
         <v>44469</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1">
       <c r="A3" s="3"/>
@@ -1925,38 +2033,38 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="57" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="59" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
       <c r="Y4" s="4">
         <f>AH1</f>
         <v>44418</v>
@@ -2217,38 +2325,38 @@
       <c r="CL4" s="7"/>
     </row>
     <row r="5" spans="1:90" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57" t="s">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
       <c r="Y5" s="8">
         <f>AH1</f>
         <v>44418</v>
@@ -2507,30 +2615,30 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="15" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
       <c r="Y6" s="10" t="str">
         <f>TEXT(Y5,"aaa")</f>
         <v>火</v>
@@ -2789,40 +2897,40 @@
       </c>
     </row>
     <row r="7" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="53">
         <v>44418</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53">
         <v>44418</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="21" t="s">
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -2889,38 +2997,38 @@
       <c r="CJ7" s="12"/>
     </row>
     <row r="8" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="32" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="26">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="21">
         <v>44420</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="26">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="21">
         <v>44420</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="21" t="s">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="23"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -2987,38 +3095,38 @@
       <c r="CJ8" s="12"/>
     </row>
     <row r="9" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="32" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="26">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="21">
         <v>44420</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="26">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="21">
         <v>44420</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="21" t="s">
+      <c r="T9" s="22"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="23"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -3085,38 +3193,38 @@
       <c r="CJ9" s="12"/>
     </row>
     <row r="10" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="32" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="26">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="21">
         <v>44421</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="26">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="21">
         <v>44421</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="21" t="s">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="23"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3183,38 +3291,38 @@
       <c r="CJ10" s="12"/>
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="32" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="26">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="21">
         <v>44421</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="26">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="21">
         <v>44421</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="21" t="s">
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="23"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3281,36 +3389,36 @@
       <c r="CJ11" s="12"/>
     </row>
     <row r="12" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="32" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="26">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="21">
         <v>44422</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="26">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="21">
         <v>44445</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="23"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -3377,38 +3485,38 @@
       <c r="CJ12" s="12"/>
     </row>
     <row r="13" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="32" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="26">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="21">
         <v>44422</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="26">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21">
         <v>44424</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="21" t="s">
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="23"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -3475,38 +3583,38 @@
       <c r="CJ13" s="12"/>
     </row>
     <row r="14" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="32" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="26">
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="21">
         <v>44425</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="26">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21">
         <v>44426</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="21" t="s">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="23"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3573,38 +3681,38 @@
       <c r="CJ14" s="12"/>
     </row>
     <row r="15" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="32" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="26">
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="21">
         <v>44427</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="26">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="21">
         <v>44431</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="21" t="s">
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -3671,38 +3779,38 @@
       <c r="CJ15" s="12"/>
     </row>
     <row r="16" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="32" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="26">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="21">
         <v>44432</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="26">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="21">
         <v>44440</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="21" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="23"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -3769,38 +3877,38 @@
       <c r="CJ16" s="12"/>
     </row>
     <row r="17" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="32" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="26">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="21">
         <v>44441</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="26">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="21">
         <v>44445</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="21" t="s">
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="23"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -3867,38 +3975,38 @@
       <c r="CJ17" s="12"/>
     </row>
     <row r="18" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="64" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="32" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="26">
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="21">
         <v>44446</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="26">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="21">
         <v>44450</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="23"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -3965,38 +4073,38 @@
       <c r="CJ18" s="12"/>
     </row>
     <row r="19" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="32" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="26">
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="21">
         <v>44446</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="26">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="21">
         <v>44446</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="21" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="22"/>
-      <c r="X19" s="23"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -4063,38 +4171,38 @@
       <c r="CJ19" s="12"/>
     </row>
     <row r="20" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="32" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="26">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="21">
         <v>44447</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="26">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="21">
         <v>44447</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="21" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="22"/>
-      <c r="X20" s="23"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -4161,38 +4269,38 @@
       <c r="CJ20" s="12"/>
     </row>
     <row r="21" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="32" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="26">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="21">
         <v>44448</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="26">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="21">
         <v>44448</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="21" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="22"/>
-      <c r="X21" s="23"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4259,38 +4367,38 @@
       <c r="CJ21" s="12"/>
     </row>
     <row r="22" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="32" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="26">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="21">
         <v>44449</v>
       </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="26">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="21">
         <v>44449</v>
       </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="21" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="26"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -4357,38 +4465,38 @@
       <c r="CJ22" s="12"/>
     </row>
     <row r="23" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="32" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="26">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="21">
         <v>44450</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="26">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="21">
         <v>44450</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="21" t="s">
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="22"/>
-      <c r="X23" s="23"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -4455,36 +4563,36 @@
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="32" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="26">
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="21">
         <v>44451</v>
       </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26">
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="21">
         <v>44458</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="23"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -4551,38 +4659,38 @@
       <c r="CJ24" s="12"/>
     </row>
     <row r="25" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="32" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="26">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="21">
         <v>44451</v>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="26">
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="21">
         <v>44451</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="21" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="22"/>
-      <c r="X25" s="23"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -4649,38 +4757,38 @@
       <c r="CJ25" s="12"/>
     </row>
     <row r="26" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="32" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="26">
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="21">
         <v>44452</v>
       </c>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="26">
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="21">
         <v>44452</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="21" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="22"/>
-      <c r="X26" s="23"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -4747,38 +4855,38 @@
       <c r="CJ26" s="12"/>
     </row>
     <row r="27" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="32" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="26">
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="21">
         <v>44453</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="26">
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="21">
         <v>44454</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="21" t="s">
+      <c r="T27" s="22"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="22"/>
-      <c r="X27" s="23"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -4845,38 +4953,38 @@
       <c r="CJ27" s="12"/>
     </row>
     <row r="28" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="32" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="26">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="21">
         <v>44455</v>
       </c>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="26">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="21">
         <v>44456</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="21" t="s">
+      <c r="T28" s="22"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="23"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4943,38 +5051,38 @@
       <c r="CJ28" s="12"/>
     </row>
     <row r="29" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="32" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="26">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="21">
         <v>44457</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="26">
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="21">
         <v>44458</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="21" t="s">
+      <c r="T29" s="22"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="23"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -5041,32 +5149,32 @@
       <c r="CJ29" s="12"/>
     </row>
     <row r="30" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="21" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="22"/>
-      <c r="X30" s="23"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
@@ -5133,32 +5241,32 @@
       <c r="CJ30" s="12"/>
     </row>
     <row r="31" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="21" t="s">
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="22"/>
-      <c r="X31" s="23"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="26"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
@@ -5225,32 +5333,32 @@
       <c r="CJ31" s="12"/>
     </row>
     <row r="32" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="21" t="s">
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="22"/>
-      <c r="X32" s="23"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="26"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -5317,32 +5425,32 @@
       <c r="CJ32" s="12"/>
     </row>
     <row r="33" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="21" t="s">
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="22"/>
-      <c r="X33" s="23"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="26"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -5409,32 +5517,32 @@
       <c r="CJ33" s="12"/>
     </row>
     <row r="34" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="21" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="22"/>
-      <c r="X34" s="23"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="26"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
@@ -5501,32 +5609,32 @@
       <c r="CJ34" s="12"/>
     </row>
     <row r="35" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="21" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="22"/>
-      <c r="X35" s="23"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="26"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -5593,30 +5701,30 @@
       <c r="CJ35" s="12"/>
     </row>
     <row r="36" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -5691,6 +5799,149 @@
     <row r="43" spans="1:88" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="167">
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="C7:G17"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:X6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="V22:X22"/>
     <mergeCell ref="A28:B28"/>
@@ -5715,149 +5966,6 @@
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:X6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="C7:G17"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Z5:CJ6">

--- a/doc/目標管理スケジュール_製造・テスト.xlsx
+++ b/doc/目標管理スケジュール_製造・テスト.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1514,16 +1514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1532,8 +1532,62 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10782300" y="3524250"/>
-          <a:ext cx="952500" cy="152400"/>
+          <a:off x="10782299" y="3524250"/>
+          <a:ext cx="1228725" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="右矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020551" y="3771900"/>
+          <a:ext cx="733424" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1897,10 +1951,10 @@
   <dimension ref="A1:CL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW16" sqref="AW16"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -3709,7 +3763,7 @@
       <c r="T15" s="22"/>
       <c r="U15" s="23"/>
       <c r="V15" s="24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="W15" s="25"/>
       <c r="X15" s="26"/>
@@ -3807,7 +3861,7 @@
       <c r="T16" s="22"/>
       <c r="U16" s="23"/>
       <c r="V16" s="24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="W16" s="25"/>
       <c r="X16" s="26"/>
@@ -3905,7 +3959,7 @@
       <c r="T17" s="22"/>
       <c r="U17" s="23"/>
       <c r="V17" s="24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="W17" s="25"/>
       <c r="X17" s="26"/>
@@ -5170,9 +5224,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
       <c r="U30" s="23"/>
-      <c r="V30" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V30" s="24"/>
       <c r="W30" s="25"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="12"/>
@@ -5262,9 +5314,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
       <c r="U31" s="23"/>
-      <c r="V31" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V31" s="24"/>
       <c r="W31" s="25"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="12"/>
@@ -5354,9 +5404,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
       <c r="U32" s="23"/>
-      <c r="V32" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V32" s="24"/>
       <c r="W32" s="25"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="12"/>
@@ -5446,9 +5494,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="22"/>
       <c r="U33" s="23"/>
-      <c r="V33" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V33" s="24"/>
       <c r="W33" s="25"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="12"/>
@@ -5538,9 +5584,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
       <c r="U34" s="23"/>
-      <c r="V34" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V34" s="24"/>
       <c r="W34" s="25"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="12"/>
@@ -5630,9 +5674,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="22"/>
       <c r="U35" s="23"/>
-      <c r="V35" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="V35" s="24"/>
       <c r="W35" s="25"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="12"/>

--- a/doc/目標管理スケジュール_製造・テスト.xlsx
+++ b/doc/目標管理スケジュール_製造・テスト.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -126,13 +126,6 @@
   </si>
   <si>
     <t>・ER図</t>
-  </si>
-  <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロジェクト雛形の作成</t>
@@ -769,6 +762,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,17 +786,14 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -799,6 +804,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -807,105 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1620,6 +1613,546 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="右矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="4229100"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="4486275"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="右矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506450" y="4724400"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右矢印 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13754100" y="4953000"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13754100" y="5191125"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14249400" y="5667375"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="右矢印 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="5924550"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右矢印 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14744700" y="6134100"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14992350" y="6381750"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="右矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="6629400"/>
+          <a:ext cx="219075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1878,7 +2411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,7 +2422,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1951,10 +2484,10 @@
   <dimension ref="A1:CL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="AS9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30:X36"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -1969,100 +2502,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="54" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="43" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="40">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="51">
         <v>44418</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="43" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="40">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="51">
         <v>44469</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1">
       <c r="A3" s="3"/>
@@ -2087,38 +2620,38 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="46" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="48" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
       <c r="Y4" s="4">
         <f>AH1</f>
         <v>44418</v>
@@ -2379,38 +2912,38 @@
       <c r="CL4" s="7"/>
     </row>
     <row r="5" spans="1:90" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46" t="s">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
       <c r="Y5" s="8">
         <f>AH1</f>
         <v>44418</v>
@@ -2669,30 +3202,30 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="15" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
       <c r="Y6" s="10" t="str">
         <f>TEXT(Y5,"aaa")</f>
         <v>火</v>
@@ -2951,40 +3484,40 @@
       </c>
     </row>
     <row r="7" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="53">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35">
         <v>44418</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35">
         <v>44418</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -3051,38 +3584,38 @@
       <c r="CJ7" s="12"/>
     </row>
     <row r="8" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="21">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="26">
         <v>44420</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="21">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="26">
         <v>44420</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -3149,38 +3682,38 @@
       <c r="CJ8" s="12"/>
     </row>
     <row r="9" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="21">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="26">
         <v>44420</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="21">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="26">
         <v>44420</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -3247,38 +3780,38 @@
       <c r="CJ9" s="12"/>
     </row>
     <row r="10" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="21">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="26">
         <v>44421</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="21">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="26">
         <v>44421</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3345,38 +3878,38 @@
       <c r="CJ10" s="12"/>
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="21">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="26">
         <v>44421</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="21">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="26">
         <v>44421</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="22"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3443,36 +3976,36 @@
       <c r="CJ11" s="12"/>
     </row>
     <row r="12" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="21">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="26">
         <v>44422</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="21">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="26">
         <v>44445</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -3539,38 +4072,38 @@
       <c r="CJ12" s="12"/>
     </row>
     <row r="13" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="21">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="26">
         <v>44422</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="21">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="26">
         <v>44424</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -3637,38 +4170,38 @@
       <c r="CJ13" s="12"/>
     </row>
     <row r="14" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="21">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="26">
         <v>44425</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="21">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="26">
         <v>44426</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3735,38 +4268,38 @@
       <c r="CJ14" s="12"/>
     </row>
     <row r="15" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="21">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="26">
         <v>44427</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="21">
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="26">
         <v>44431</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -3833,38 +4366,38 @@
       <c r="CJ15" s="12"/>
     </row>
     <row r="16" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="21">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="26">
         <v>44432</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="21">
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="26">
         <v>44440</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -3931,38 +4464,38 @@
       <c r="CJ16" s="12"/>
     </row>
     <row r="17" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="21">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="26">
         <v>44441</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="21">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="26">
         <v>44445</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -4029,38 +4562,38 @@
       <c r="CJ17" s="12"/>
     </row>
     <row r="18" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="21">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="26">
         <v>44446</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="21">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="26">
         <v>44450</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -4127,38 +4660,38 @@
       <c r="CJ18" s="12"/>
     </row>
     <row r="19" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="21">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="26">
         <v>44446</v>
       </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="21">
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="26">
         <v>44446</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -4225,38 +4758,38 @@
       <c r="CJ19" s="12"/>
     </row>
     <row r="20" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="21">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="26">
         <v>44447</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="21">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="26">
         <v>44447</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -4323,38 +4856,38 @@
       <c r="CJ20" s="12"/>
     </row>
     <row r="21" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="21">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="26">
         <v>44448</v>
       </c>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="21">
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="26">
         <v>44448</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4421,38 +4954,38 @@
       <c r="CJ21" s="12"/>
     </row>
     <row r="22" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="21">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="26">
         <v>44449</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="21">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="26">
         <v>44449</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -4519,38 +5052,38 @@
       <c r="CJ22" s="12"/>
     </row>
     <row r="23" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="21">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="26">
         <v>44450</v>
       </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="21">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="26">
         <v>44450</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -4617,36 +5150,36 @@
       <c r="CJ23" s="12"/>
     </row>
     <row r="24" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="21">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="26">
         <v>44451</v>
       </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="21">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="26">
         <v>44458</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -4713,38 +5246,38 @@
       <c r="CJ24" s="12"/>
     </row>
     <row r="25" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="21">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="26">
         <v>44451</v>
       </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="21">
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="26">
         <v>44451</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="25"/>
-      <c r="X25" s="26"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -4811,38 +5344,38 @@
       <c r="CJ25" s="12"/>
     </row>
     <row r="26" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="21">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="26">
         <v>44452</v>
       </c>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="21">
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="26">
         <v>44452</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -4909,38 +5442,38 @@
       <c r="CJ26" s="12"/>
     </row>
     <row r="27" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="21">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="26">
         <v>44453</v>
       </c>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="21">
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="26">
         <v>44454</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="22"/>
+      <c r="X27" s="23"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -5007,38 +5540,38 @@
       <c r="CJ27" s="12"/>
     </row>
     <row r="28" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="21">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="26">
         <v>44455</v>
       </c>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="21">
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="26">
         <v>44456</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -5105,38 +5638,38 @@
       <c r="CJ28" s="12"/>
     </row>
     <row r="29" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="21">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="26">
         <v>44457</v>
       </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="21">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="26">
         <v>44458</v>
       </c>
-      <c r="T29" s="22"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="26"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="22"/>
+      <c r="X29" s="23"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -5203,30 +5736,30 @@
       <c r="CJ29" s="12"/>
     </row>
     <row r="30" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="26"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="23"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
@@ -5293,30 +5826,30 @@
       <c r="CJ30" s="12"/>
     </row>
     <row r="31" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="26"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
@@ -5383,30 +5916,30 @@
       <c r="CJ31" s="12"/>
     </row>
     <row r="32" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="26"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -5473,30 +6006,30 @@
       <c r="CJ32" s="12"/>
     </row>
     <row r="33" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="26"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -5563,30 +6096,30 @@
       <c r="CJ33" s="12"/>
     </row>
     <row r="34" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="26"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
@@ -5653,30 +6186,30 @@
       <c r="CJ34" s="12"/>
     </row>
     <row r="35" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="26"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -5743,30 +6276,30 @@
       <c r="CJ35" s="12"/>
     </row>
     <row r="36" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -5841,17 +6374,138 @@
     <row r="43" spans="1:88" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:X6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="C7:G17"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="S18:U18"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="V20:X20"/>
@@ -5876,138 +6530,17 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H22:O22"/>
     <mergeCell ref="P22:R22"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="C7:G17"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:X6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Z5:CJ6">
